--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -601,7 +601,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/rs-task-status</t>
+    <t>http://hl7.org/fhir/ValueSet/task-status</t>
   </si>
   <si>
     <t>Request.status, Event.status</t>
@@ -1769,7 +1769,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T08:41:35+00:00</t>
+    <t>2025-10-09T09:07:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T09:07:51+00:00</t>
+    <t>2025-10-09T12:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T12:26:29+00:00</t>
+    <t>2025-10-09T16:04:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T16:04:50+00:00</t>
+    <t>2025-10-09T17:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T17:33:43+00:00</t>
+    <t>2025-10-09T18:52:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T02:17:32+00:00</t>
+    <t>2025-10-21T04:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T04:48:52+00:00</t>
+    <t>2025-10-21T09:02:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-task.xlsx
+++ b/StructureDefinition-RS-task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T09:02:18+00:00</t>
+    <t>2025-10-21T09:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
